--- a/SMO/TemplateExcel/KeHoachVanTai.xlsx
+++ b/SMO/TemplateExcel/KeHoachVanTai.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
-  <workbookPr defaultThemeVersion="202300"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\BPS_SKYPEC\SMO\TemplateExcel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE8F1278-C7A7-4E15-9460-49CD5CA0E79C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{1C93075D-A84B-4070-9DE5-F7D48F57A7D7}"/>
+    <workbookView windowWidth="23040" windowHeight="8555"/>
   </bookViews>
   <sheets>
     <sheet name="CP xe vận" sheetId="1" r:id="rId1"/>
@@ -20,9 +14,6 @@
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -39,19 +30,19 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Tran Thang</author>
   </authors>
   <commentList>
-    <comment ref="N5" authorId="0" shapeId="0" xr:uid="{C453B698-CCC4-4BE2-A950-F31DE8FCAE96}">
+    <comment ref="N5" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>Tran Thang:</t>
         </r>
@@ -59,21 +50,21 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
 Phải thuê đơn vị vận chuyển ngoài?</t>
         </r>
       </text>
     </comment>
-    <comment ref="AJ5" authorId="0" shapeId="0" xr:uid="{C518CEFE-BB03-496E-8714-3F6082E5797D}">
+    <comment ref="AK5" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>Tran Thang:</t>
         </r>
@@ -81,7 +72,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
 Sửa chữa thường xuyên? -&gt; chuyên dành cho xe vận
@@ -89,14 +80,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="AL5" authorId="0" shapeId="0" xr:uid="{C23FC084-3D43-48B2-BD46-2E6EAC15B53B}">
+    <comment ref="AM5" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>Tran Thang:</t>
         </r>
@@ -104,7 +95,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
 Lập chung cho cả xe ko phân biệt tuyến đường?
@@ -112,14 +103,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="BC5" authorId="0" shapeId="0" xr:uid="{4AB24E61-A794-4C37-AFEC-DD760B211401}">
+    <comment ref="BD5" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>Tran Thang:</t>
         </r>
@@ -127,21 +118,21 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
 Ko lấy từ sheet CTP sang? -&gt; tính riêng cho lái xe vận, sheet CTP ngoài lái xe</t>
         </r>
       </text>
     </comment>
-    <comment ref="BH5" authorId="0" shapeId="0" xr:uid="{44F36356-709A-479D-9DE9-80F646B52D46}">
+    <comment ref="BI5" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>Tran Thang:</t>
         </r>
@@ -149,21 +140,21 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
 Phí sử dụng đường bộ?</t>
         </r>
       </text>
     </comment>
-    <comment ref="N6" authorId="0" shapeId="0" xr:uid="{78863631-07C3-4B03-95AE-6AEC2389300A}">
+    <comment ref="N6" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>Tran Thang:</t>
         </r>
@@ -171,21 +162,21 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
 Thiếu = SL tra nạp giao xuống - SL tự vận?</t>
         </r>
       </text>
     </comment>
-    <comment ref="AE6" authorId="0" shapeId="0" xr:uid="{3ACFBF20-1A26-4805-8F01-271CD4C93E6A}">
+    <comment ref="AF6" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>Tran Thang:</t>
         </r>
@@ -193,7 +184,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
 Chưa hiểu 3 số này là gì?
@@ -201,14 +192,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="AI8" authorId="0" shapeId="0" xr:uid="{0469FFCE-5BFB-497E-8939-DF99E6D95FF5}">
+    <comment ref="AJ8" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>Tran Thang:</t>
         </r>
@@ -216,7 +207,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
 Số này nghĩa là gì?
@@ -225,14 +216,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="AJ8" authorId="0" shapeId="0" xr:uid="{8D7FFCCE-BF83-4D4E-A743-F6849D422B3B}">
+    <comment ref="AK8" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>Tran Thang:</t>
         </r>
@@ -240,7 +231,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
 Số này nghĩa là gì?
@@ -254,7 +245,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="83">
+  <si>
+    <t>CHI PHÍ XE VẬN</t>
+  </si>
   <si>
     <t>TT</t>
   </si>
@@ -456,6 +450,12 @@
     <t>Ko hàng</t>
   </si>
   <si>
+    <t>DO</t>
+  </si>
+  <si>
+    <t>Dầu mỡ phụ</t>
+  </si>
+  <si>
     <t>Số lần đo lường</t>
   </si>
   <si>
@@ -481,9 +481,6 @@
   </si>
   <si>
     <t>Số lần bảo dưỡng</t>
-  </si>
-  <si>
-    <t>DO</t>
   </si>
   <si>
     <t>Xăng</t>
@@ -518,73 +515,217 @@
   <si>
     <t>Đ.giá
 đ/m3</t>
-  </si>
-  <si>
-    <t>CHI PHÍ XE VẬN</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="_ * #,##0_)\ _®_ ;_ * \(#,##0\)\ _®_ ;_ * &quot;-&quot;??_)\ _®_ ;_ @_ "/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_-* #,##0.00\ &quot;₫&quot;_-;\-* #,##0.00\ &quot;₫&quot;_-;_-* &quot;-&quot;??\ &quot;₫&quot;_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_-* #,##0\ &quot;₫&quot;_-;\-* #,##0\ &quot;₫&quot;_-;_-* &quot;-&quot;\ &quot;₫&quot;_-;_-@_-"/>
+    <numFmt numFmtId="180" formatCode="_ * #,##0_)\ _®_ ;_ * \(#,##0\)\ _®_ ;_ * &quot;-&quot;??_)\ _®_ ;_ @_ "/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
-      <family val="1"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
-      <sz val="12"/>
+      <sz val="16"/>
+      <color theme="1"/>
       <name val="Times New Roman"/>
-      <family val="1"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="18"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
-      <family val="1"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
-      <sz val="16"/>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
+      <name val="Aptos Narrow"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Aptos Narrow"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Aptos Narrow"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Aptos Narrow"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Aptos Narrow"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="Tahoma"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Tahoma"/>
+      <charset val="134"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -597,8 +738,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -608,95 +935,413 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="4" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="4" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="5" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="5" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="2" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="4" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
-    <cellStyle name="Dấu phẩy" xfId="1" builtinId="3"/>
-    <cellStyle name="Phần trăm" xfId="2" builtinId="5"/>
+  <cellStyles count="49">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
     <sheetNames>
       <sheetName val="database"/>
       <sheetName val="Tổng hợp"/>
@@ -717,7 +1362,7 @@
       <sheetData sheetId="0">
         <row r="8">
           <cell r="D8">
-            <v>2.2499999999999999E-2</v>
+            <v>0.0225</v>
           </cell>
         </row>
         <row r="10">
@@ -792,7 +1437,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
+        <a:latin typeface="Aptos Display"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -825,26 +1470,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+        <a:latin typeface="Aptos Narrow"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -877,23 +1505,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1055,617 +1666,621 @@
       </a:style>
     </a:lnDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2848F525-7D69-44C2-8537-9EDA07754401}">
-  <dimension ref="A2:BU8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A2:BV8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" ySplit="8" topLeftCell="G9" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G1" sqref="G1"/>
-      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="A5" sqref="A5:A8"/>
+      <pane xSplit="6" ySplit="8" topLeftCell="S9" activePane="bottomRight" state="frozen"/>
+      <selection/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="AA6" sqref="AA6:AB6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelRow="7"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="3" width="9.140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="1"/>
-    <col min="5" max="6" width="9.140625" style="1" customWidth="1"/>
-    <col min="7" max="24" width="9.140625" style="1"/>
-    <col min="25" max="25" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="30" width="9.140625" style="1"/>
-    <col min="31" max="31" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="34" width="9.140625" style="1"/>
-    <col min="35" max="36" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="37" max="46" width="9.140625" style="1"/>
-    <col min="47" max="48" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="49" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="9.13888888888889" style="2"/>
+    <col min="2" max="3" width="9.13888888888889" style="2" customWidth="1"/>
+    <col min="4" max="4" width="9.13888888888889" style="2"/>
+    <col min="5" max="6" width="9.13888888888889" style="2" customWidth="1"/>
+    <col min="7" max="24" width="9.13888888888889" style="2"/>
+    <col min="25" max="25" width="9.28703703703704" style="2" customWidth="1"/>
+    <col min="26" max="26" width="14.1388888888889" style="2" customWidth="1"/>
+    <col min="27" max="27" width="9.28703703703704" style="2" customWidth="1"/>
+    <col min="28" max="28" width="15.1111111111111" style="2" customWidth="1"/>
+    <col min="29" max="31" width="9.13888888888889" style="2"/>
+    <col min="32" max="32" width="11.287037037037" style="2" customWidth="1"/>
+    <col min="33" max="35" width="9.13888888888889" style="2"/>
+    <col min="36" max="37" width="9.28703703703704" style="2" customWidth="1"/>
+    <col min="38" max="47" width="9.13888888888889" style="2"/>
+    <col min="48" max="49" width="9.28703703703704" style="2" customWidth="1"/>
+    <col min="50" max="16384" width="9.13888888888889" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:73" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
+    <row r="2" ht="15.75" customHeight="1" spans="2:11">
+      <c r="B2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
     </row>
-    <row r="3" spans="1:73" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
+    <row r="3" ht="15.75" customHeight="1" spans="2:11">
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
     </row>
-    <row r="5" spans="1:73" s="2" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="15" t="s">
+    <row r="5" s="1" customFormat="1" ht="33" customHeight="1" spans="1:74">
+      <c r="A5" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="12" t="s">
+      <c r="B5" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="12" t="s">
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="12" t="s">
+      <c r="F5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="12"/>
-      <c r="N5" s="12" t="s">
+      <c r="G5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="O5" s="12"/>
-      <c r="P5" s="12"/>
-      <c r="Q5" s="12"/>
-      <c r="R5" s="12" t="s">
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="S5" s="12"/>
-      <c r="T5" s="12"/>
-      <c r="U5" s="12"/>
-      <c r="V5" s="12" t="s">
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="W5" s="12"/>
-      <c r="X5" s="12"/>
-      <c r="Y5" s="12"/>
-      <c r="Z5" s="12"/>
-      <c r="AA5" s="12"/>
-      <c r="AB5" s="4" t="s">
+      <c r="S5" s="5"/>
+      <c r="T5" s="5"/>
+      <c r="U5" s="5"/>
+      <c r="V5" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="AC5" s="4"/>
-      <c r="AD5" s="4"/>
-      <c r="AE5" s="4"/>
-      <c r="AF5" s="4"/>
-      <c r="AG5" s="4"/>
-      <c r="AH5" s="12" t="s">
+      <c r="W5" s="11"/>
+      <c r="X5" s="11"/>
+      <c r="Y5" s="11"/>
+      <c r="Z5" s="11"/>
+      <c r="AA5" s="11"/>
+      <c r="AB5" s="12"/>
+      <c r="AC5" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="AI5" s="12"/>
-      <c r="AJ5" s="4" t="s">
+      <c r="AD5" s="14"/>
+      <c r="AE5" s="6"/>
+      <c r="AF5" s="6"/>
+      <c r="AG5" s="6"/>
+      <c r="AH5" s="6"/>
+      <c r="AI5" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="AK5" s="3" t="s">
+      <c r="AJ5" s="5"/>
+      <c r="AK5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="AL5" s="12" t="s">
+      <c r="AL5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="AM5" s="12"/>
-      <c r="AN5" s="12"/>
-      <c r="AO5" s="12"/>
-      <c r="AP5" s="12"/>
-      <c r="AQ5" s="12"/>
-      <c r="AR5" s="12"/>
-      <c r="AS5" s="12"/>
-      <c r="AT5" s="12"/>
-      <c r="AU5" s="12"/>
-      <c r="AV5" s="12"/>
-      <c r="AW5" s="12"/>
-      <c r="AX5" s="12" t="s">
+      <c r="AM5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="AY5" s="12"/>
-      <c r="AZ5" s="12"/>
-      <c r="BA5" s="12"/>
-      <c r="BB5" s="12"/>
-      <c r="BC5" s="12" t="s">
+      <c r="AN5" s="5"/>
+      <c r="AO5" s="5"/>
+      <c r="AP5" s="5"/>
+      <c r="AQ5" s="5"/>
+      <c r="AR5" s="5"/>
+      <c r="AS5" s="5"/>
+      <c r="AT5" s="5"/>
+      <c r="AU5" s="5"/>
+      <c r="AV5" s="5"/>
+      <c r="AW5" s="5"/>
+      <c r="AX5" s="5"/>
+      <c r="AY5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="BD5" s="12"/>
-      <c r="BE5" s="12"/>
-      <c r="BF5" s="12"/>
-      <c r="BG5" s="12"/>
-      <c r="BH5" s="12" t="s">
+      <c r="AZ5" s="5"/>
+      <c r="BA5" s="5"/>
+      <c r="BB5" s="5"/>
+      <c r="BC5" s="5"/>
+      <c r="BD5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="BI5" s="12"/>
-      <c r="BJ5" s="12"/>
-      <c r="BK5" s="12" t="s">
+      <c r="BE5" s="5"/>
+      <c r="BF5" s="5"/>
+      <c r="BG5" s="5"/>
+      <c r="BH5" s="5"/>
+      <c r="BI5" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="BL5" s="12"/>
-      <c r="BM5" s="12"/>
-      <c r="BN5" s="12"/>
-      <c r="BO5" s="12" t="s">
+      <c r="BJ5" s="5"/>
+      <c r="BK5" s="5"/>
+      <c r="BL5" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="BP5" s="12"/>
-      <c r="BQ5" s="12"/>
-      <c r="BR5" s="12"/>
-      <c r="BS5" s="12"/>
-      <c r="BT5" s="12"/>
-      <c r="BU5" s="12"/>
+      <c r="BM5" s="5"/>
+      <c r="BN5" s="5"/>
+      <c r="BO5" s="5"/>
+      <c r="BP5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="BQ5" s="5"/>
+      <c r="BR5" s="5"/>
+      <c r="BS5" s="5"/>
+      <c r="BT5" s="5"/>
+      <c r="BU5" s="5"/>
+      <c r="BV5" s="5"/>
     </row>
-    <row r="6" spans="1:73" s="2" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A6" s="12"/>
-      <c r="B6" s="15"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="H6" s="13" t="s">
+    <row r="6" s="1" customFormat="1" ht="46.8" spans="1:74">
+      <c r="A6" s="5"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="I6" s="13" t="s">
+      <c r="H6" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="J6" s="13" t="s">
+      <c r="I6" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="K6" s="13" t="s">
+      <c r="J6" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="L6" s="13" t="s">
+      <c r="K6" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="M6" s="13" t="s">
+      <c r="L6" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="N6" s="12" t="s">
+      <c r="M6" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="O6" s="10" t="s">
+      <c r="N6" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="P6" s="10" t="s">
+      <c r="O6" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="Q6" s="10" t="s">
+      <c r="P6" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="R6" s="13" t="s">
+      <c r="Q6" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="S6" s="10" t="s">
+      <c r="R6" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="T6" s="10" t="s">
+      <c r="S6" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="U6" s="10" t="s">
+      <c r="T6" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="V6" s="10" t="s">
+      <c r="U6" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="W6" s="10"/>
-      <c r="X6" s="10" t="s">
+      <c r="V6" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="Y6" s="5" t="s">
+      <c r="W6" s="9"/>
+      <c r="X6" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="Z6" s="5" t="s">
+      <c r="Y6" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="AA6" s="5" t="s">
+      <c r="Z6" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="AB6" s="14" t="s">
+      <c r="AA6" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="AC6" s="10" t="s">
+      <c r="AB6" s="9"/>
+      <c r="AC6" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="AD6" s="14" t="s">
+      <c r="AD6" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="AE6" s="5">
+      <c r="AE6" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF6" s="9">
         <f>145000/72%</f>
-        <v>201388.88888888891</v>
-      </c>
-      <c r="AF6" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="AG6" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="AH6" s="10" t="s">
+        <v>201388.888888889</v>
+      </c>
+      <c r="AG6" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="AI6" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="AJ6" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="AK6" s="3"/>
-      <c r="AL6" s="10" t="s">
+      <c r="AH6" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="AI6" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="AM6" s="10"/>
-      <c r="AN6" s="10" t="s">
+      <c r="AJ6" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="AK6" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="AL6" s="5"/>
+      <c r="AM6" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="AO6" s="10"/>
-      <c r="AP6" s="10" t="s">
+      <c r="AN6" s="9"/>
+      <c r="AO6" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="AQ6" s="10"/>
-      <c r="AR6" s="10" t="s">
+      <c r="AP6" s="9"/>
+      <c r="AQ6" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="AS6" s="10"/>
-      <c r="AT6" s="10"/>
-      <c r="AU6" s="10"/>
-      <c r="AV6" s="10"/>
-      <c r="AW6" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="AX6" s="12" t="s">
+      <c r="AR6" s="9"/>
+      <c r="AS6" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="AY6" s="12"/>
-      <c r="AZ6" s="10" t="s">
+      <c r="AT6" s="9"/>
+      <c r="AU6" s="9"/>
+      <c r="AV6" s="9"/>
+      <c r="AW6" s="9"/>
+      <c r="AX6" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="AY6" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="BA6" s="10"/>
-      <c r="BB6" s="10" t="s">
+      <c r="AZ6" s="5"/>
+      <c r="BA6" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="BC6" s="14" t="s">
+      <c r="BB6" s="9"/>
+      <c r="BC6" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="BD6" s="10" t="s">
+      <c r="BD6" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="BE6" s="10" t="s">
+      <c r="BE6" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="BF6" s="10"/>
-      <c r="BG6" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="BH6" s="12" t="s">
+      <c r="BF6" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="BI6" s="12"/>
-      <c r="BJ6" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="BK6" s="10" t="s">
+      <c r="BG6" s="9"/>
+      <c r="BH6" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="BI6" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="BL6" s="10" t="s">
+      <c r="BJ6" s="5"/>
+      <c r="BK6" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="BL6" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="BM6" s="10"/>
-      <c r="BN6" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="BO6" s="10" t="s">
+      <c r="BM6" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="BP6" s="10"/>
-      <c r="BQ6" s="10"/>
-      <c r="BR6" s="10" t="s">
+      <c r="BN6" s="9"/>
+      <c r="BO6" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="BP6" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="BS6" s="10"/>
-      <c r="BT6" s="10"/>
-      <c r="BU6" s="10" t="s">
+      <c r="BQ6" s="9"/>
+      <c r="BR6" s="9"/>
+      <c r="BS6" s="9" t="s">
         <v>58</v>
       </c>
+      <c r="BT6" s="9"/>
+      <c r="BU6" s="9"/>
+      <c r="BV6" s="9" t="s">
+        <v>59</v>
+      </c>
     </row>
-    <row r="7" spans="1:73" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="12"/>
-      <c r="B7" s="15"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="13"/>
-      <c r="L7" s="13"/>
-      <c r="M7" s="13"/>
-      <c r="N7" s="12"/>
-      <c r="O7" s="10"/>
-      <c r="P7" s="10"/>
-      <c r="Q7" s="10"/>
-      <c r="R7" s="13"/>
-      <c r="S7" s="10"/>
-      <c r="T7" s="10"/>
-      <c r="U7" s="10"/>
-      <c r="V7" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="W7" s="10" t="s">
+    <row r="7" s="1" customFormat="1" ht="27" customHeight="1" spans="1:74">
+      <c r="A7" s="5"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="9"/>
+      <c r="P7" s="9"/>
+      <c r="Q7" s="9"/>
+      <c r="R7" s="8"/>
+      <c r="S7" s="9"/>
+      <c r="T7" s="9"/>
+      <c r="U7" s="9"/>
+      <c r="V7" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="X7" s="10"/>
-      <c r="Y7" s="5"/>
-      <c r="Z7" s="5"/>
-      <c r="AA7" s="4"/>
-      <c r="AB7" s="14"/>
-      <c r="AC7" s="10"/>
-      <c r="AD7" s="14"/>
-      <c r="AE7" s="5">
+      <c r="W7" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="X7" s="9"/>
+      <c r="Y7" s="9"/>
+      <c r="Z7" s="9"/>
+      <c r="AA7" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB7" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC7" s="7"/>
+      <c r="AD7" s="9"/>
+      <c r="AE7" s="7"/>
+      <c r="AF7" s="9">
         <f>62500/72%</f>
-        <v>86805.555555555562</v>
-      </c>
-      <c r="AF7" s="10"/>
-      <c r="AG7" s="10"/>
-      <c r="AH7" s="10"/>
-      <c r="AI7" s="10"/>
-      <c r="AJ7" s="10"/>
-      <c r="AK7" s="3"/>
-      <c r="AL7" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="AM7" s="12" t="s">
+        <v>86805.5555555556</v>
+      </c>
+      <c r="AG7" s="9"/>
+      <c r="AH7" s="9"/>
+      <c r="AI7" s="9"/>
+      <c r="AJ7" s="9"/>
+      <c r="AK7" s="9"/>
+      <c r="AL7" s="5"/>
+      <c r="AM7" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="AN7" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="AO7" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="AP7" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="AQ7" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="AR7" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="AS7" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="AT7" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="AU7" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AV7" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="AN7" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="AO7" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="AP7" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="AQ7" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="AR7" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="AS7" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="AT7" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="AU7" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="AV7" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="AW7" s="10"/>
-      <c r="AX7" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="AY7" s="10" t="s">
+      <c r="AW7" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="AZ7" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="BA7" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="BB7" s="10"/>
-      <c r="BC7" s="14"/>
-      <c r="BD7" s="10"/>
-      <c r="BE7" s="10" t="s">
+      <c r="AX7" s="9"/>
+      <c r="AY7" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="BF7" s="10" t="s">
+      <c r="AZ7" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="BG7" s="10"/>
-      <c r="BH7" s="10" t="s">
+      <c r="BA7" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="BB7" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="BC7" s="9"/>
+      <c r="BD7" s="7"/>
+      <c r="BE7" s="9"/>
+      <c r="BF7" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="BI7" s="10" t="s">
+      <c r="BG7" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="BJ7" s="10"/>
-      <c r="BK7" s="10"/>
-      <c r="BL7" s="10" t="s">
+      <c r="BH7" s="9"/>
+      <c r="BI7" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="BM7" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="BN7" s="10"/>
-      <c r="BO7" s="10"/>
-      <c r="BP7" s="10"/>
-      <c r="BQ7" s="10"/>
-      <c r="BR7" s="10"/>
-      <c r="BS7" s="10"/>
-      <c r="BT7" s="10"/>
-      <c r="BU7" s="10"/>
+      <c r="BJ7" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="BK7" s="9"/>
+      <c r="BL7" s="9"/>
+      <c r="BM7" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="BN7" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="BO7" s="9"/>
+      <c r="BP7" s="9"/>
+      <c r="BQ7" s="9"/>
+      <c r="BR7" s="9"/>
+      <c r="BS7" s="9"/>
+      <c r="BT7" s="9"/>
+      <c r="BU7" s="9"/>
+      <c r="BV7" s="9"/>
     </row>
-    <row r="8" spans="1:73" s="2" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="12"/>
-      <c r="B8" s="15"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="13"/>
-      <c r="L8" s="13"/>
-      <c r="M8" s="13"/>
-      <c r="N8" s="12"/>
-      <c r="O8" s="10"/>
-      <c r="P8" s="10"/>
-      <c r="Q8" s="10"/>
-      <c r="R8" s="13"/>
-      <c r="S8" s="10"/>
-      <c r="T8" s="10"/>
-      <c r="U8" s="10"/>
-      <c r="V8" s="10"/>
-      <c r="W8" s="10"/>
-      <c r="X8" s="10"/>
-      <c r="Y8" s="6">
+    <row r="8" s="1" customFormat="1" ht="48" customHeight="1" spans="1:74">
+      <c r="A8" s="5"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="9"/>
+      <c r="P8" s="9"/>
+      <c r="Q8" s="9"/>
+      <c r="R8" s="8"/>
+      <c r="S8" s="9"/>
+      <c r="T8" s="9"/>
+      <c r="U8" s="9"/>
+      <c r="V8" s="9"/>
+      <c r="W8" s="9"/>
+      <c r="X8" s="9"/>
+      <c r="Y8" s="15">
         <f>[1]database!D8</f>
-        <v>2.2499999999999999E-2</v>
-      </c>
-      <c r="Z8" s="7">
+        <v>0.0225</v>
+      </c>
+      <c r="Z8" s="16">
         <f>[1]database!D10</f>
         <v>24050</v>
       </c>
-      <c r="AA8" s="6">
+      <c r="AA8" s="15">
         <f>[1]database!D11</f>
         <v>1.2</v>
       </c>
-      <c r="AB8" s="14"/>
-      <c r="AC8" s="10"/>
-      <c r="AD8" s="14"/>
-      <c r="AE8" s="5">
+      <c r="AB8" s="7"/>
+      <c r="AC8" s="7"/>
+      <c r="AD8" s="9"/>
+      <c r="AE8" s="7"/>
+      <c r="AF8" s="9">
         <f>75000/72%</f>
-        <v>104166.66666666667</v>
-      </c>
-      <c r="AF8" s="10"/>
-      <c r="AG8" s="6"/>
-      <c r="AH8" s="10"/>
-      <c r="AI8" s="9">
+        <v>104166.666666667</v>
+      </c>
+      <c r="AG8" s="9"/>
+      <c r="AH8" s="15"/>
+      <c r="AI8" s="9"/>
+      <c r="AJ8" s="17">
         <f>67.72</f>
         <v>67.72</v>
       </c>
-      <c r="AJ8" s="9">
+      <c r="AK8" s="17">
         <v>27.2</v>
       </c>
-      <c r="AK8" s="3"/>
-      <c r="AL8" s="12"/>
-      <c r="AM8" s="12"/>
-      <c r="AN8" s="12"/>
-      <c r="AO8" s="12"/>
-      <c r="AP8" s="12"/>
-      <c r="AQ8" s="10"/>
-      <c r="AR8" s="12"/>
-      <c r="AS8" s="12"/>
-      <c r="AT8" s="12"/>
-      <c r="AU8" s="3">
+      <c r="AL8" s="5"/>
+      <c r="AM8" s="5"/>
+      <c r="AN8" s="5"/>
+      <c r="AO8" s="5"/>
+      <c r="AP8" s="5"/>
+      <c r="AQ8" s="5"/>
+      <c r="AR8" s="9"/>
+      <c r="AS8" s="5"/>
+      <c r="AT8" s="5"/>
+      <c r="AU8" s="5"/>
+      <c r="AV8" s="5">
         <v>1.5</v>
       </c>
-      <c r="AV8" s="3">
+      <c r="AW8" s="5">
         <v>2</v>
       </c>
-      <c r="AW8" s="10"/>
-      <c r="AX8" s="13"/>
-      <c r="AY8" s="10"/>
-      <c r="AZ8" s="13"/>
-      <c r="BA8" s="10"/>
-      <c r="BB8" s="10"/>
-      <c r="BC8" s="14"/>
-      <c r="BD8" s="10"/>
-      <c r="BE8" s="10"/>
-      <c r="BF8" s="10"/>
-      <c r="BG8" s="10"/>
-      <c r="BH8" s="10"/>
-      <c r="BI8" s="10"/>
-      <c r="BJ8" s="10"/>
-      <c r="BK8" s="10"/>
-      <c r="BL8" s="10"/>
-      <c r="BM8" s="10"/>
-      <c r="BN8" s="10"/>
-      <c r="BO8" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="BP8" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="BQ8" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="BR8" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="BS8" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="BT8" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="BU8" s="10"/>
+      <c r="AX8" s="9"/>
+      <c r="AY8" s="8"/>
+      <c r="AZ8" s="9"/>
+      <c r="BA8" s="8"/>
+      <c r="BB8" s="9"/>
+      <c r="BC8" s="9"/>
+      <c r="BD8" s="7"/>
+      <c r="BE8" s="9"/>
+      <c r="BF8" s="9"/>
+      <c r="BG8" s="9"/>
+      <c r="BH8" s="9"/>
+      <c r="BI8" s="9"/>
+      <c r="BJ8" s="9"/>
+      <c r="BK8" s="9"/>
+      <c r="BL8" s="9"/>
+      <c r="BM8" s="9"/>
+      <c r="BN8" s="9"/>
+      <c r="BO8" s="9"/>
+      <c r="BP8" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="BQ8" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="BR8" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="BS8" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="BT8" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="BU8" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="BV8" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="82">
-    <mergeCell ref="BC5:BG5"/>
-    <mergeCell ref="AW6:AW8"/>
-    <mergeCell ref="AX6:AY6"/>
-    <mergeCell ref="AZ6:BA6"/>
-    <mergeCell ref="BB6:BB8"/>
-    <mergeCell ref="BC6:BC8"/>
-    <mergeCell ref="BD6:BD8"/>
-    <mergeCell ref="AX5:BB5"/>
+  <mergeCells count="84">
+    <mergeCell ref="G5:M5"/>
+    <mergeCell ref="N5:Q5"/>
+    <mergeCell ref="R5:U5"/>
+    <mergeCell ref="V5:AB5"/>
+    <mergeCell ref="AC5:AD5"/>
+    <mergeCell ref="AI5:AJ5"/>
+    <mergeCell ref="AM5:AX5"/>
+    <mergeCell ref="AY5:BC5"/>
+    <mergeCell ref="BD5:BH5"/>
+    <mergeCell ref="BI5:BK5"/>
+    <mergeCell ref="BL5:BO5"/>
+    <mergeCell ref="BP5:BV5"/>
+    <mergeCell ref="V6:W6"/>
+    <mergeCell ref="AA6:AB6"/>
+    <mergeCell ref="AM6:AN6"/>
+    <mergeCell ref="AO6:AP6"/>
+    <mergeCell ref="AQ6:AR6"/>
+    <mergeCell ref="AS6:AW6"/>
+    <mergeCell ref="AY6:AZ6"/>
+    <mergeCell ref="BA6:BB6"/>
+    <mergeCell ref="BF6:BG6"/>
+    <mergeCell ref="BI6:BJ6"/>
+    <mergeCell ref="BM6:BN6"/>
     <mergeCell ref="A5:A8"/>
-    <mergeCell ref="B5:D8"/>
     <mergeCell ref="E5:E8"/>
     <mergeCell ref="F5:F8"/>
-    <mergeCell ref="G5:M5"/>
-    <mergeCell ref="AB6:AB8"/>
-    <mergeCell ref="AC6:AC8"/>
-    <mergeCell ref="AD6:AD8"/>
-    <mergeCell ref="AF6:AF8"/>
-    <mergeCell ref="AG6:AG7"/>
-    <mergeCell ref="AH6:AH8"/>
-    <mergeCell ref="T6:T8"/>
-    <mergeCell ref="U6:U8"/>
-    <mergeCell ref="V6:W6"/>
-    <mergeCell ref="X6:X8"/>
-    <mergeCell ref="S6:S8"/>
-    <mergeCell ref="BH5:BJ5"/>
-    <mergeCell ref="BK5:BN5"/>
-    <mergeCell ref="BO5:BU5"/>
     <mergeCell ref="G6:G8"/>
     <mergeCell ref="H6:H8"/>
     <mergeCell ref="I6:I8"/>
@@ -1673,56 +2288,60 @@
     <mergeCell ref="K6:K8"/>
     <mergeCell ref="L6:L8"/>
     <mergeCell ref="M6:M8"/>
-    <mergeCell ref="N5:Q5"/>
-    <mergeCell ref="R5:U5"/>
-    <mergeCell ref="V5:AA5"/>
-    <mergeCell ref="AH5:AI5"/>
-    <mergeCell ref="AL5:AW5"/>
     <mergeCell ref="N6:N8"/>
     <mergeCell ref="O6:O8"/>
     <mergeCell ref="P6:P8"/>
     <mergeCell ref="Q6:Q8"/>
     <mergeCell ref="R6:R8"/>
-    <mergeCell ref="AP6:AQ6"/>
-    <mergeCell ref="AR6:AV6"/>
+    <mergeCell ref="S6:S8"/>
+    <mergeCell ref="T6:T8"/>
+    <mergeCell ref="U6:U8"/>
+    <mergeCell ref="V7:V8"/>
+    <mergeCell ref="W7:W8"/>
+    <mergeCell ref="X6:X8"/>
+    <mergeCell ref="AC6:AC8"/>
+    <mergeCell ref="AD6:AD8"/>
+    <mergeCell ref="AE6:AE8"/>
+    <mergeCell ref="AG6:AG8"/>
+    <mergeCell ref="AH6:AH7"/>
+    <mergeCell ref="AI6:AI8"/>
+    <mergeCell ref="AJ6:AJ7"/>
+    <mergeCell ref="AK6:AK7"/>
+    <mergeCell ref="AM7:AM8"/>
+    <mergeCell ref="AN7:AN8"/>
+    <mergeCell ref="AO7:AO8"/>
     <mergeCell ref="AP7:AP8"/>
     <mergeCell ref="AQ7:AQ8"/>
     <mergeCell ref="AR7:AR8"/>
     <mergeCell ref="AS7:AS8"/>
-    <mergeCell ref="BN6:BN8"/>
-    <mergeCell ref="BO6:BQ7"/>
-    <mergeCell ref="BR6:BT7"/>
-    <mergeCell ref="BU6:BU8"/>
-    <mergeCell ref="V7:V8"/>
-    <mergeCell ref="W7:W8"/>
-    <mergeCell ref="AL7:AL8"/>
-    <mergeCell ref="AM7:AM8"/>
-    <mergeCell ref="AN7:AN8"/>
-    <mergeCell ref="AO7:AO8"/>
-    <mergeCell ref="BE6:BF6"/>
-    <mergeCell ref="BG6:BG8"/>
-    <mergeCell ref="BH6:BI6"/>
-    <mergeCell ref="BJ6:BJ8"/>
-    <mergeCell ref="BK6:BK8"/>
-    <mergeCell ref="BL6:BM6"/>
-    <mergeCell ref="BM7:BM8"/>
-    <mergeCell ref="B2:F3"/>
     <mergeCell ref="AT7:AT8"/>
-    <mergeCell ref="AX7:AX8"/>
+    <mergeCell ref="AU7:AU8"/>
+    <mergeCell ref="AX6:AX8"/>
     <mergeCell ref="AY7:AY8"/>
     <mergeCell ref="AZ7:AZ8"/>
     <mergeCell ref="BA7:BA8"/>
-    <mergeCell ref="BE7:BE8"/>
+    <mergeCell ref="BB7:BB8"/>
+    <mergeCell ref="BC6:BC8"/>
+    <mergeCell ref="BD6:BD8"/>
+    <mergeCell ref="BE6:BE8"/>
     <mergeCell ref="BF7:BF8"/>
-    <mergeCell ref="BH7:BH8"/>
+    <mergeCell ref="BG7:BG8"/>
+    <mergeCell ref="BH6:BH8"/>
     <mergeCell ref="BI7:BI8"/>
-    <mergeCell ref="BL7:BL8"/>
-    <mergeCell ref="AI6:AI7"/>
-    <mergeCell ref="AJ6:AJ7"/>
-    <mergeCell ref="AL6:AM6"/>
-    <mergeCell ref="AN6:AO6"/>
+    <mergeCell ref="BJ7:BJ8"/>
+    <mergeCell ref="BK6:BK8"/>
+    <mergeCell ref="BL6:BL8"/>
+    <mergeCell ref="BM7:BM8"/>
+    <mergeCell ref="BN7:BN8"/>
+    <mergeCell ref="BO6:BO8"/>
+    <mergeCell ref="BV6:BV8"/>
+    <mergeCell ref="B5:D8"/>
+    <mergeCell ref="B2:F3"/>
+    <mergeCell ref="BP6:BR7"/>
+    <mergeCell ref="BS6:BU7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>